--- a/data/playbooks/datasources/excel_files/lod_env.xlsx
+++ b/data/playbooks/datasources/excel_files/lod_env.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netapp-my.sharepoint.com/personal/mirko_netapp_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="8_{399849C7-7A77-4B87-98D1-FDE84370058A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41CC1475-B9B5-425C-BB91-68DA5AAEF99A}"/>
+  <xr:revisionPtr revIDLastSave="161" documentId="8_{399849C7-7A77-4B87-98D1-FDE84370058A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2A58990-BE48-4CA1-9A6A-6EB7E7B97DAC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{BE7D7441-ECC1-4D6E-BDAE-34250DEAE321}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9960" activeTab="4" xr2:uid="{BE7D7441-ECC1-4D6E-BDAE-34250DEAE321}"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>name</t>
   </si>
@@ -598,7 +598,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,9 +618,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
-        <f>Table1[[#This Row],[code]]</f>
-        <v>AMS</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -630,9 +629,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <f>Table1[[#This Row],[code]]</f>
-        <v>BRU</v>
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -654,7 +652,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,9 +672,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
-        <f>Table2[[#This Row],[code]]</f>
-        <v>PROD</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -686,9 +683,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <f>Table2[[#This Row],[code]]</f>
-        <v>DEV</v>
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -710,7 +706,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -775,7 +771,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -798,9 +794,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
-        <f>Table5[[#This Row],[code]]</f>
-        <v>SMB</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -813,9 +808,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <f>Table5[[#This Row],[code]]</f>
-        <v>VMW</v>
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -828,9 +822,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <f>Table5[[#This Row],[code]]</f>
-        <v>NFS</v>
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -855,7 +848,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -893,17 +886,17 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>29</v>
+      <c r="D2">
+        <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -913,21 +906,21 @@
       </c>
       <c r="G2" t="str">
         <f>LOWER(_xlfn.CONCAT(Table4[[#This Row],[location_id]],"_",Table4[[#This Row],[environment_id]],Table4[[#This Row],[service_level_id]],"_",Table4[[#This Row],[service_id]]))</f>
-        <v>ams_prod1_vmw</v>
+        <v>1_11_2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>29</v>
+      <c r="D3">
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -937,21 +930,21 @@
       </c>
       <c r="G3" t="str">
         <f>LOWER(_xlfn.CONCAT(Table4[[#This Row],[location_id]],"_",Table4[[#This Row],[environment_id]],Table4[[#This Row],[service_level_id]],"_",Table4[[#This Row],[service_id]]))</f>
-        <v>ams_dev1_vmw</v>
+        <v>1_21_2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>30</v>
+      <c r="D4">
+        <v>3</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -961,21 +954,21 @@
       </c>
       <c r="G4" t="str">
         <f>LOWER(_xlfn.CONCAT(Table4[[#This Row],[location_id]],"_",Table4[[#This Row],[environment_id]],Table4[[#This Row],[service_level_id]],"_",Table4[[#This Row],[service_id]]))</f>
-        <v>ams_prod5_nfs</v>
+        <v>1_15_3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
-        <v>30</v>
+      <c r="D5">
+        <v>3</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -985,21 +978,21 @@
       </c>
       <c r="G5" t="str">
         <f>LOWER(_xlfn.CONCAT(Table4[[#This Row],[location_id]],"_",Table4[[#This Row],[environment_id]],Table4[[#This Row],[service_level_id]],"_",Table4[[#This Row],[service_id]]))</f>
-        <v>ams_dev5_nfs</v>
+        <v>1_25_3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="C6">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>28</v>
+      <c r="D6">
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -1009,21 +1002,21 @@
       </c>
       <c r="G6" t="str">
         <f>LOWER(_xlfn.CONCAT(Table4[[#This Row],[location_id]],"_",Table4[[#This Row],[environment_id]],Table4[[#This Row],[service_level_id]],"_",Table4[[#This Row],[service_id]]))</f>
-        <v>ams_prod9_smb</v>
+        <v>1_19_1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
       </c>
       <c r="C7">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
-        <v>28</v>
+      <c r="D7">
+        <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -1033,21 +1026,21 @@
       </c>
       <c r="G7" t="str">
         <f>LOWER(_xlfn.CONCAT(Table4[[#This Row],[location_id]],"_",Table4[[#This Row],[environment_id]],Table4[[#This Row],[service_level_id]],"_",Table4[[#This Row],[service_id]]))</f>
-        <v>ams_dev9_smb</v>
+        <v>1_29_1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
-        <v>29</v>
+      <c r="D8">
+        <v>2</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -1057,21 +1050,21 @@
       </c>
       <c r="G8" t="str">
         <f>LOWER(_xlfn.CONCAT(Table4[[#This Row],[location_id]],"_",Table4[[#This Row],[environment_id]],Table4[[#This Row],[service_level_id]],"_",Table4[[#This Row],[service_id]]))</f>
-        <v>bru_prod1_vmw</v>
+        <v>2_11_2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
-        <v>29</v>
+      <c r="D9">
+        <v>2</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
@@ -1081,21 +1074,21 @@
       </c>
       <c r="G9" t="str">
         <f>LOWER(_xlfn.CONCAT(Table4[[#This Row],[location_id]],"_",Table4[[#This Row],[environment_id]],Table4[[#This Row],[service_level_id]],"_",Table4[[#This Row],[service_id]]))</f>
-        <v>bru_dev1_vmw</v>
+        <v>2_21_2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
-        <v>30</v>
+      <c r="D10">
+        <v>3</v>
       </c>
       <c r="E10" t="s">
         <v>20</v>
@@ -1105,21 +1098,21 @@
       </c>
       <c r="G10" t="str">
         <f>LOWER(_xlfn.CONCAT(Table4[[#This Row],[location_id]],"_",Table4[[#This Row],[environment_id]],Table4[[#This Row],[service_level_id]],"_",Table4[[#This Row],[service_id]]))</f>
-        <v>bru_prod5_nfs</v>
+        <v>2_15_3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
-      <c r="D11" t="s">
-        <v>30</v>
+      <c r="D11">
+        <v>3</v>
       </c>
       <c r="E11" t="s">
         <v>20</v>
@@ -1129,21 +1122,21 @@
       </c>
       <c r="G11" t="str">
         <f>LOWER(_xlfn.CONCAT(Table4[[#This Row],[location_id]],"_",Table4[[#This Row],[environment_id]],Table4[[#This Row],[service_level_id]],"_",Table4[[#This Row],[service_id]]))</f>
-        <v>bru_dev5_nfs</v>
+        <v>2_25_3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
       </c>
       <c r="C12">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
-        <v>28</v>
+      <c r="D12">
+        <v>1</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
@@ -1153,21 +1146,21 @@
       </c>
       <c r="G12" t="str">
         <f>LOWER(_xlfn.CONCAT(Table4[[#This Row],[location_id]],"_",Table4[[#This Row],[environment_id]],Table4[[#This Row],[service_level_id]],"_",Table4[[#This Row],[service_id]]))</f>
-        <v>bru_prod9_smb</v>
+        <v>2_19_1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
       </c>
       <c r="C13">
         <v>9</v>
       </c>
-      <c r="D13" t="s">
-        <v>28</v>
+      <c r="D13">
+        <v>1</v>
       </c>
       <c r="E13" t="s">
         <v>20</v>
@@ -1177,7 +1170,7 @@
       </c>
       <c r="G13" t="str">
         <f>LOWER(_xlfn.CONCAT(Table4[[#This Row],[location_id]],"_",Table4[[#This Row],[environment_id]],Table4[[#This Row],[service_level_id]],"_",Table4[[#This Row],[service_id]]))</f>
-        <v>bru_dev9_smb</v>
+        <v>2_29_1</v>
       </c>
     </row>
   </sheetData>

--- a/data/playbooks/datasources/excel_files/lod_env.xlsx
+++ b/data/playbooks/datasources/excel_files/lod_env.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netapp-my.sharepoint.com/personal/mirko_netapp_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="161" documentId="8_{399849C7-7A77-4B87-98D1-FDE84370058A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2A58990-BE48-4CA1-9A6A-6EB7E7B97DAC}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="8_{399849C7-7A77-4B87-98D1-FDE84370058A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52D10190-CC40-46B8-AE40-2E7F73E1AFA0}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9960" activeTab="4" xr2:uid="{BE7D7441-ECC1-4D6E-BDAE-34250DEAE321}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9960" activeTab="3" xr2:uid="{BE7D7441-ECC1-4D6E-BDAE-34250DEAE321}"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
   <si>
     <t>name</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>cluster2</t>
-  </si>
-  <si>
-    <t>service</t>
   </si>
   <si>
     <t>protocol</t>
@@ -252,7 +249,7 @@
     <tableColumn id="1" xr3:uid="{E1423968-A372-4017-8540-D4A5C6055754}" name="id">
       <calculatedColumnFormula>Table5[[#This Row],[code]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{E9585AFD-5FDB-488F-9AE8-1764ED07A9EB}" name="service"/>
+    <tableColumn id="2" xr3:uid="{E9585AFD-5FDB-488F-9AE8-1764ED07A9EB}" name="name"/>
     <tableColumn id="3" xr3:uid="{AB5E0B36-C4D0-4A4E-81A4-04A90070C51B}" name="code"/>
     <tableColumn id="4" xr3:uid="{2EA315BC-FD00-4E4C-95EA-EEED836E68F3}" name="protocol"/>
   </tableColumns>
@@ -770,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0A94DC-185A-4137-93FE-CE433E061E32}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,13 +781,13 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -798,13 +795,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -812,13 +809,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -826,13 +823,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -847,7 +844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89459A9-115B-4F82-9C33-67F25BE548FD}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -870,7 +867,7 @@
         <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
         <v>19</v>

--- a/data/playbooks/datasources/excel_files/lod_env.xlsx
+++ b/data/playbooks/datasources/excel_files/lod_env.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netapp-my.sharepoint.com/personal/mirko_netapp_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="8_{399849C7-7A77-4B87-98D1-FDE84370058A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52D10190-CC40-46B8-AE40-2E7F73E1AFA0}"/>
+  <xr:revisionPtr revIDLastSave="189" documentId="8_{399849C7-7A77-4B87-98D1-FDE84370058A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96A39E8B-881B-4F28-8761-2A6CDC5A58C9}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9960" activeTab="3" xr2:uid="{BE7D7441-ECC1-4D6E-BDAE-34250DEAE321}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9960" activeTab="4" xr2:uid="{BE7D7441-ECC1-4D6E-BDAE-34250DEAE321}"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="31">
   <si>
     <t>name</t>
   </si>
@@ -595,7 +595,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -615,8 +615,9 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="str">
+        <f>Table1[[#This Row],[code]]</f>
+        <v>AMS</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -626,8 +627,9 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="str">
+        <f>Table1[[#This Row],[code]]</f>
+        <v>BRU</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -649,7 +651,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,8 +671,9 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="str">
+        <f>Table2[[#This Row],[code]]</f>
+        <v>PROD</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -680,8 +683,9 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="str">
+        <f>Table2[[#This Row],[code]]</f>
+        <v>DEV</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -767,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0A94DC-185A-4137-93FE-CE433E061E32}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -791,8 +795,9 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="str">
+        <f>Table5[[#This Row],[code]]</f>
+        <v>SMB</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -805,8 +810,9 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="str">
+        <f>Table5[[#This Row],[code]]</f>
+        <v>VMW</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -819,8 +825,9 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="str">
+        <f>Table5[[#This Row],[code]]</f>
+        <v>NFS</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -844,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89459A9-115B-4F82-9C33-67F25BE548FD}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -883,17 +890,17 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>2</v>
+      <c r="D2" t="s">
+        <v>28</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -903,21 +910,21 @@
       </c>
       <c r="G2" t="str">
         <f>LOWER(_xlfn.CONCAT(Table4[[#This Row],[location_id]],"_",Table4[[#This Row],[environment_id]],Table4[[#This Row],[service_level_id]],"_",Table4[[#This Row],[service_id]]))</f>
-        <v>1_11_2</v>
+        <v>ams_prod1_vmw</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>2</v>
+      <c r="D3" t="s">
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -927,21 +934,21 @@
       </c>
       <c r="G3" t="str">
         <f>LOWER(_xlfn.CONCAT(Table4[[#This Row],[location_id]],"_",Table4[[#This Row],[environment_id]],Table4[[#This Row],[service_level_id]],"_",Table4[[#This Row],[service_id]]))</f>
-        <v>1_21_2</v>
+        <v>ams_dev1_vmw</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4">
-        <v>3</v>
+      <c r="D4" t="s">
+        <v>29</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -951,21 +958,21 @@
       </c>
       <c r="G4" t="str">
         <f>LOWER(_xlfn.CONCAT(Table4[[#This Row],[location_id]],"_",Table4[[#This Row],[environment_id]],Table4[[#This Row],[service_level_id]],"_",Table4[[#This Row],[service_id]]))</f>
-        <v>1_15_3</v>
+        <v>ams_prod5_nfs</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
-      <c r="D5">
-        <v>3</v>
+      <c r="D5" t="s">
+        <v>29</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -975,21 +982,21 @@
       </c>
       <c r="G5" t="str">
         <f>LOWER(_xlfn.CONCAT(Table4[[#This Row],[location_id]],"_",Table4[[#This Row],[environment_id]],Table4[[#This Row],[service_level_id]],"_",Table4[[#This Row],[service_id]]))</f>
-        <v>1_25_3</v>
+        <v>ams_dev5_nfs</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
       </c>
       <c r="C6">
         <v>9</v>
       </c>
-      <c r="D6">
-        <v>1</v>
+      <c r="D6" t="s">
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -999,21 +1006,21 @@
       </c>
       <c r="G6" t="str">
         <f>LOWER(_xlfn.CONCAT(Table4[[#This Row],[location_id]],"_",Table4[[#This Row],[environment_id]],Table4[[#This Row],[service_level_id]],"_",Table4[[#This Row],[service_id]]))</f>
-        <v>1_19_1</v>
+        <v>ams_prod9_smb</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
       </c>
       <c r="C7">
         <v>9</v>
       </c>
-      <c r="D7">
-        <v>1</v>
+      <c r="D7" t="s">
+        <v>27</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -1023,21 +1030,21 @@
       </c>
       <c r="G7" t="str">
         <f>LOWER(_xlfn.CONCAT(Table4[[#This Row],[location_id]],"_",Table4[[#This Row],[environment_id]],Table4[[#This Row],[service_level_id]],"_",Table4[[#This Row],[service_id]]))</f>
-        <v>1_29_1</v>
+        <v>ams_dev9_smb</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8">
-        <v>2</v>
+      <c r="D8" t="s">
+        <v>28</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -1047,21 +1054,21 @@
       </c>
       <c r="G8" t="str">
         <f>LOWER(_xlfn.CONCAT(Table4[[#This Row],[location_id]],"_",Table4[[#This Row],[environment_id]],Table4[[#This Row],[service_level_id]],"_",Table4[[#This Row],[service_id]]))</f>
-        <v>2_11_2</v>
+        <v>bru_prod1_vmw</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9">
-        <v>2</v>
+      <c r="D9" t="s">
+        <v>28</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
@@ -1071,21 +1078,21 @@
       </c>
       <c r="G9" t="str">
         <f>LOWER(_xlfn.CONCAT(Table4[[#This Row],[location_id]],"_",Table4[[#This Row],[environment_id]],Table4[[#This Row],[service_level_id]],"_",Table4[[#This Row],[service_id]]))</f>
-        <v>2_21_2</v>
+        <v>bru_dev1_vmw</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
-      <c r="D10">
-        <v>3</v>
+      <c r="D10" t="s">
+        <v>29</v>
       </c>
       <c r="E10" t="s">
         <v>20</v>
@@ -1095,21 +1102,21 @@
       </c>
       <c r="G10" t="str">
         <f>LOWER(_xlfn.CONCAT(Table4[[#This Row],[location_id]],"_",Table4[[#This Row],[environment_id]],Table4[[#This Row],[service_level_id]],"_",Table4[[#This Row],[service_id]]))</f>
-        <v>2_15_3</v>
+        <v>bru_prod5_nfs</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
-      <c r="D11">
-        <v>3</v>
+      <c r="D11" t="s">
+        <v>29</v>
       </c>
       <c r="E11" t="s">
         <v>20</v>
@@ -1119,21 +1126,21 @@
       </c>
       <c r="G11" t="str">
         <f>LOWER(_xlfn.CONCAT(Table4[[#This Row],[location_id]],"_",Table4[[#This Row],[environment_id]],Table4[[#This Row],[service_level_id]],"_",Table4[[#This Row],[service_id]]))</f>
-        <v>2_25_3</v>
+        <v>bru_dev5_nfs</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
       </c>
       <c r="C12">
         <v>9</v>
       </c>
-      <c r="D12">
-        <v>1</v>
+      <c r="D12" t="s">
+        <v>27</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
@@ -1143,21 +1150,21 @@
       </c>
       <c r="G12" t="str">
         <f>LOWER(_xlfn.CONCAT(Table4[[#This Row],[location_id]],"_",Table4[[#This Row],[environment_id]],Table4[[#This Row],[service_level_id]],"_",Table4[[#This Row],[service_id]]))</f>
-        <v>2_19_1</v>
+        <v>bru_prod9_smb</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
       </c>
       <c r="C13">
         <v>9</v>
       </c>
-      <c r="D13">
-        <v>1</v>
+      <c r="D13" t="s">
+        <v>27</v>
       </c>
       <c r="E13" t="s">
         <v>20</v>
@@ -1167,7 +1174,7 @@
       </c>
       <c r="G13" t="str">
         <f>LOWER(_xlfn.CONCAT(Table4[[#This Row],[location_id]],"_",Table4[[#This Row],[environment_id]],Table4[[#This Row],[service_level_id]],"_",Table4[[#This Row],[service_id]]))</f>
-        <v>2_29_1</v>
+        <v>bru_dev9_smb</v>
       </c>
     </row>
   </sheetData>

--- a/data/playbooks/datasources/excel_files/lod_env.xlsx
+++ b/data/playbooks/datasources/excel_files/lod_env.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netapp-my.sharepoint.com/personal/mirko_netapp_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jumpstart\af_maf_lod\data\playbooks\datasources\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="189" documentId="8_{399849C7-7A77-4B87-98D1-FDE84370058A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96A39E8B-881B-4F28-8761-2A6CDC5A58C9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E3FF03C-B033-4BBA-9391-4FE5B267351B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9960" activeTab="4" xr2:uid="{BE7D7441-ECC1-4D6E-BDAE-34250DEAE321}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{BE7D7441-ECC1-4D6E-BDAE-34250DEAE321}"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="33">
   <si>
     <t>name</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>service_level_id</t>
+  </si>
+  <si>
+    <t>NSC</t>
+  </si>
+  <si>
+    <t>Norway</t>
   </si>
 </sst>
 </file>
@@ -168,8 +174,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -201,8 +208,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0B95C367-3FB6-409E-9B0E-5047BA7C6734}" name="Table1" displayName="Table1" ref="A1:C3" totalsRowShown="0">
-  <autoFilter ref="A1:C3" xr:uid="{0B95C367-3FB6-409E-9B0E-5047BA7C6734}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0B95C367-3FB6-409E-9B0E-5047BA7C6734}" name="Table1" displayName="Table1" ref="A1:C4" totalsRowShown="0">
+  <autoFilter ref="A1:C4" xr:uid="{0B95C367-3FB6-409E-9B0E-5047BA7C6734}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{DDAA32EF-DD15-4631-AA37-0041432209DA}" name="id" dataDxfId="3">
       <calculatedColumnFormula>Table1[[#This Row],[code]]</calculatedColumnFormula>
@@ -258,8 +265,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69D6A31B-DEE6-4AA7-AF15-5F7104FA2C7B}" name="Table4" displayName="Table4" ref="A1:G13" totalsRowShown="0">
-  <autoFilter ref="A1:G13" xr:uid="{69D6A31B-DEE6-4AA7-AF15-5F7104FA2C7B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69D6A31B-DEE6-4AA7-AF15-5F7104FA2C7B}" name="Table4" displayName="Table4" ref="A1:G14" totalsRowShown="0">
+  <autoFilter ref="A1:G14" xr:uid="{69D6A31B-DEE6-4AA7-AF15-5F7104FA2C7B}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{0F937945-D1A0-46AC-BA4A-1A1AB70B8C39}" name="location_id"/>
     <tableColumn id="2" xr3:uid="{4CF278CA-0804-46FC-BE75-8FCAF24972B7}" name="environment_id"/>
@@ -592,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A071BB-55CE-4286-B06F-5447060017E4}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,6 +643,17 @@
       </c>
       <c r="C3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -849,10 +867,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89459A9-115B-4F82-9C33-67F25BE548FD}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1177,6 +1195,30 @@
         <v>bru_dev9_smb</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f>LOWER(_xlfn.CONCAT(Table4[[#This Row],[location_id]],"_",Table4[[#This Row],[environment_id]],Table4[[#This Row],[service_level_id]],"_",Table4[[#This Row],[service_id]]))</f>
+        <v>nsc_prod5_smb</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/data/playbooks/datasources/excel_files/lod_env.xlsx
+++ b/data/playbooks/datasources/excel_files/lod_env.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jumpstart\af_maf_lod\data\playbooks\datasources\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E3FF03C-B033-4BBA-9391-4FE5B267351B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF945430-2EA2-4BEC-8877-D69ADD976A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{BE7D7441-ECC1-4D6E-BDAE-34250DEAE321}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{BE7D7441-ECC1-4D6E-BDAE-34250DEAE321}"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="31">
   <si>
     <t>name</t>
   </si>
@@ -133,12 +133,6 @@
   </si>
   <si>
     <t>service_level_id</t>
-  </si>
-  <si>
-    <t>NSC</t>
-  </si>
-  <si>
-    <t>Norway</t>
   </si>
 </sst>
 </file>
@@ -174,9 +168,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -208,10 +201,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0B95C367-3FB6-409E-9B0E-5047BA7C6734}" name="Table1" displayName="Table1" ref="A1:C4" totalsRowShown="0">
-  <autoFilter ref="A1:C4" xr:uid="{0B95C367-3FB6-409E-9B0E-5047BA7C6734}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0B95C367-3FB6-409E-9B0E-5047BA7C6734}" name="Table1" displayName="Table1" ref="A1:C3" totalsRowShown="0">
+  <autoFilter ref="A1:C3" xr:uid="{0B95C367-3FB6-409E-9B0E-5047BA7C6734}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{DDAA32EF-DD15-4631-AA37-0041432209DA}" name="id" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{DDAA32EF-DD15-4631-AA37-0041432209DA}" name="id" dataDxfId="1">
       <calculatedColumnFormula>Table1[[#This Row],[code]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{9127F6CD-5777-4329-BBDC-4E139C362782}" name="name"/>
@@ -225,7 +218,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{17BCD9E2-CFC0-41D3-8C37-7AD288CA223B}" name="Table2" displayName="Table2" ref="A1:C3" totalsRowShown="0">
   <autoFilter ref="A1:C3" xr:uid="{17BCD9E2-CFC0-41D3-8C37-7AD288CA223B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6D2FC484-7C7E-4DFB-A8F2-41A993D2A629}" name="id" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{6D2FC484-7C7E-4DFB-A8F2-41A993D2A629}" name="id" dataDxfId="3">
       <calculatedColumnFormula>Table2[[#This Row],[code]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{5B32F2C3-161B-4ABC-A67A-A8313C50C16F}" name="name"/>
@@ -239,7 +232,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1263CF53-E855-46A5-AF2C-523FC102C69F}" name="Table3" displayName="Table3" ref="A1:C4" totalsRowShown="0">
   <autoFilter ref="A1:C4" xr:uid="{1263CF53-E855-46A5-AF2C-523FC102C69F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{DCDB0D01-D48E-4D05-8205-9F2BBD71A3DD}" name="id" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{DCDB0D01-D48E-4D05-8205-9F2BBD71A3DD}" name="id" dataDxfId="2">
       <calculatedColumnFormula>Table3[[#This Row],[code]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{D69D669F-9F2B-486F-9069-3180E051A1DD}" name="name"/>
@@ -265,8 +258,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69D6A31B-DEE6-4AA7-AF15-5F7104FA2C7B}" name="Table4" displayName="Table4" ref="A1:G14" totalsRowShown="0">
-  <autoFilter ref="A1:G14" xr:uid="{69D6A31B-DEE6-4AA7-AF15-5F7104FA2C7B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69D6A31B-DEE6-4AA7-AF15-5F7104FA2C7B}" name="Table4" displayName="Table4" ref="A1:G13" totalsRowShown="0">
+  <autoFilter ref="A1:G13" xr:uid="{69D6A31B-DEE6-4AA7-AF15-5F7104FA2C7B}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{0F937945-D1A0-46AC-BA4A-1A1AB70B8C39}" name="location_id"/>
     <tableColumn id="2" xr3:uid="{4CF278CA-0804-46FC-BE75-8FCAF24972B7}" name="environment_id"/>
@@ -599,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A071BB-55CE-4286-B06F-5447060017E4}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,17 +636,6 @@
       </c>
       <c r="C3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -867,10 +849,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89459A9-115B-4F82-9C33-67F25BE548FD}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1195,30 +1177,6 @@
         <v>bru_dev9_smb</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="1" t="str">
-        <f>LOWER(_xlfn.CONCAT(Table4[[#This Row],[location_id]],"_",Table4[[#This Row],[environment_id]],Table4[[#This Row],[service_level_id]],"_",Table4[[#This Row],[service_id]]))</f>
-        <v>nsc_prod5_smb</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
